--- a/excels/tbl_history_pallet.xlsx
+++ b/excels/tbl_history_pallet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="2">
   <si>
     <t>5</t>
   </si>
@@ -71,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L254"/>
+  <dimension ref="A1:L265"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -8216,37 +8216,31 @@
     </row>
     <row r="249">
       <c r="A249">
-        <v>50553</v>
+        <v>50860</v>
       </c>
       <c r="B249">
-        <v>19986</v>
+        <v>15445</v>
       </c>
       <c r="C249">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="D249" s="1">
-        <v>44123.518078703702</v>
+        <v>44117.362013888887</v>
       </c>
       <c r="E249">
-        <v>2016</v>
+        <v>1998.5</v>
       </c>
       <c r="F249">
-        <v>106</v>
+        <v>81.5</v>
       </c>
       <c r="G249">
-        <v>1910</v>
+        <v>1917</v>
       </c>
       <c r="H249" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" s="2">
-        <v>44113.518425925926</v>
-      </c>
-      <c r="J249" t="s">
-        <v>1</v>
-      </c>
-      <c r="K249" s="3">
-        <v>44121.420972222222</v>
+        <v>44117.362118055556</v>
       </c>
       <c r="L249">
         <v>24</v>
@@ -8254,75 +8248,69 @@
     </row>
     <row r="250">
       <c r="A250">
-        <v>50653</v>
+        <v>51459</v>
       </c>
       <c r="B250">
-        <v>18817</v>
+        <v>25498</v>
       </c>
       <c r="C250">
-        <v>43627</v>
+        <v>50399</v>
       </c>
       <c r="D250" s="1">
-        <v>44123.34546296297</v>
+        <v>44120</v>
       </c>
       <c r="E250">
-        <v>2059</v>
+        <v>2628</v>
       </c>
       <c r="F250">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="G250">
-        <v>1931</v>
+        <v>2530</v>
       </c>
       <c r="H250" t="s">
         <v>1</v>
       </c>
       <c r="I250" s="2">
-        <v>44114.350081018521</v>
-      </c>
-      <c r="J250" t="s">
-        <v>1</v>
-      </c>
-      <c r="K250" s="3">
-        <v>44121.421018518515</v>
+        <v>44120.406631944446</v>
       </c>
       <c r="L250">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>50780</v>
+        <v>51811</v>
       </c>
       <c r="B251">
-        <v>26972</v>
+        <v>18728</v>
       </c>
       <c r="C251">
-        <v>43785</v>
+        <v>45682</v>
       </c>
       <c r="D251" s="1">
-        <v>44123.552939814814</v>
+        <v>44130.617719907408</v>
       </c>
       <c r="E251">
-        <v>2035.5</v>
+        <v>2035</v>
       </c>
       <c r="F251">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="G251">
-        <v>1936.5</v>
+        <v>1917</v>
       </c>
       <c r="H251" t="s">
         <v>1</v>
       </c>
       <c r="I251" s="2">
-        <v>44116.564618055556</v>
+        <v>44123.61818287037</v>
       </c>
       <c r="J251" t="s">
         <v>1</v>
       </c>
       <c r="K251" s="3">
-        <v>44121.421053240738</v>
+        <v>44129.587893518517</v>
       </c>
       <c r="L251">
         <v>24</v>
@@ -8330,37 +8318,37 @@
     </row>
     <row r="252">
       <c r="A252">
-        <v>50782</v>
+        <v>51812</v>
       </c>
       <c r="B252">
-        <v>23821</v>
+        <v>24614</v>
       </c>
       <c r="C252">
-        <v>43964</v>
+        <v>45680</v>
       </c>
       <c r="D252" s="1">
-        <v>44123.569733796299</v>
+        <v>44130.619340277779</v>
       </c>
       <c r="E252">
-        <v>2005</v>
+        <v>2027</v>
       </c>
       <c r="F252">
-        <v>94.5</v>
+        <v>111.5</v>
       </c>
       <c r="G252">
-        <v>1910.5</v>
+        <v>1915.5</v>
       </c>
       <c r="H252" t="s">
         <v>1</v>
       </c>
       <c r="I252" s="2">
-        <v>44116.571238425924</v>
+        <v>44123.619837962964</v>
       </c>
       <c r="J252" t="s">
         <v>1</v>
       </c>
       <c r="K252" s="3">
-        <v>44121.42109953703</v>
+        <v>44129.587939814817</v>
       </c>
       <c r="L252">
         <v>24</v>
@@ -8368,66 +8356,490 @@
     </row>
     <row r="253">
       <c r="A253">
-        <v>50860</v>
+        <v>52019</v>
       </c>
       <c r="B253">
-        <v>15445</v>
+        <v>1</v>
       </c>
       <c r="C253">
-        <v>43944</v>
+        <v>51769</v>
       </c>
       <c r="D253" s="1">
-        <v>44117.362013888887</v>
+        <v>44124</v>
       </c>
       <c r="E253">
-        <v>1998.5</v>
+        <v>60147</v>
       </c>
       <c r="F253">
-        <v>81.5</v>
+        <v>0</v>
       </c>
       <c r="G253">
-        <v>1917</v>
+        <v>60147</v>
       </c>
       <c r="H253" t="s">
+        <v>1</v>
+      </c>
+      <c r="I253" s="2">
+        <v>44124.730763888889</v>
+      </c>
+      <c r="L253">
         <v>0</v>
-      </c>
-      <c r="I253" s="2">
-        <v>44117.362118055556</v>
-      </c>
-      <c r="L253">
-        <v>24</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>51459</v>
+        <v>52185</v>
       </c>
       <c r="B254">
-        <v>25498</v>
+        <v>9717</v>
       </c>
       <c r="C254">
-        <v>50399</v>
+        <v>46465</v>
       </c>
       <c r="D254" s="1">
-        <v>44120</v>
+        <v>44130.679745370362</v>
       </c>
       <c r="E254">
-        <v>2628</v>
+        <v>2061</v>
       </c>
       <c r="F254">
-        <v>98</v>
+        <v>128.5</v>
       </c>
       <c r="G254">
-        <v>2530</v>
+        <v>1932.5</v>
       </c>
       <c r="H254" t="s">
         <v>1</v>
       </c>
       <c r="I254" s="2">
-        <v>44120.406631944446</v>
+        <v>44125.685358796298</v>
+      </c>
+      <c r="J254" t="s">
+        <v>1</v>
+      </c>
+      <c r="K254" s="3">
+        <v>44129.58798611111</v>
       </c>
       <c r="L254">
-        <v>28</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255">
+        <v>52187</v>
+      </c>
+      <c r="B255">
+        <v>1009</v>
+      </c>
+      <c r="C255">
+        <v>46463</v>
+      </c>
+      <c r="D255" s="1">
+        <v>44130.679745370362</v>
+      </c>
+      <c r="E255">
+        <v>2039</v>
+      </c>
+      <c r="F255">
+        <v>113</v>
+      </c>
+      <c r="G255">
+        <v>1926</v>
+      </c>
+      <c r="H255" t="s">
+        <v>1</v>
+      </c>
+      <c r="I255" s="2">
+        <v>44125.688159722224</v>
+      </c>
+      <c r="J255" t="s">
+        <v>1</v>
+      </c>
+      <c r="K255" s="3">
+        <v>44129.58803240741</v>
+      </c>
+      <c r="L255">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256">
+        <v>52716</v>
+      </c>
+      <c r="B256">
+        <v>17121</v>
+      </c>
+      <c r="C256">
+        <v>46085</v>
+      </c>
+      <c r="D256" s="1">
+        <v>44130.395046296297</v>
+      </c>
+      <c r="E256">
+        <v>2019</v>
+      </c>
+      <c r="F256">
+        <v>96.5</v>
+      </c>
+      <c r="G256">
+        <v>1922.5</v>
+      </c>
+      <c r="H256" t="s">
+        <v>1</v>
+      </c>
+      <c r="I256" s="2">
+        <v>44129.408784722218</v>
+      </c>
+      <c r="J256" t="s">
+        <v>1</v>
+      </c>
+      <c r="K256" s="3">
+        <v>44129.588078703702</v>
+      </c>
+      <c r="L256">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257">
+        <v>52719</v>
+      </c>
+      <c r="B257">
+        <v>27311</v>
+      </c>
+      <c r="C257">
+        <v>46078</v>
+      </c>
+      <c r="D257" s="1">
+        <v>44130.395046296297</v>
+      </c>
+      <c r="E257">
+        <v>2030</v>
+      </c>
+      <c r="F257">
+        <v>112</v>
+      </c>
+      <c r="G257">
+        <v>1918</v>
+      </c>
+      <c r="H257" t="s">
+        <v>1</v>
+      </c>
+      <c r="I257" s="2">
+        <v>44129.410844907405</v>
+      </c>
+      <c r="J257" t="s">
+        <v>1</v>
+      </c>
+      <c r="K257" s="3">
+        <v>44129.588113425925</v>
+      </c>
+      <c r="L257">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258">
+        <v>52721</v>
+      </c>
+      <c r="B258">
+        <v>20057</v>
+      </c>
+      <c r="C258">
+        <v>46077</v>
+      </c>
+      <c r="D258" s="1">
+        <v>44130.429386574069</v>
+      </c>
+      <c r="E258">
+        <v>2056</v>
+      </c>
+      <c r="F258">
+        <v>126.5</v>
+      </c>
+      <c r="G258">
+        <v>1929.5</v>
+      </c>
+      <c r="H258" t="s">
+        <v>1</v>
+      </c>
+      <c r="I258" s="2">
+        <v>44129.429780092585</v>
+      </c>
+      <c r="J258" t="s">
+        <v>1</v>
+      </c>
+      <c r="K258" s="3">
+        <v>44129.588159722225</v>
+      </c>
+      <c r="L258">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259">
+        <v>52722</v>
+      </c>
+      <c r="B259">
+        <v>1673</v>
+      </c>
+      <c r="C259">
+        <v>46076</v>
+      </c>
+      <c r="D259" s="1">
+        <v>44130.429386574069</v>
+      </c>
+      <c r="E259">
+        <v>2053</v>
+      </c>
+      <c r="F259">
+        <v>117</v>
+      </c>
+      <c r="G259">
+        <v>1936</v>
+      </c>
+      <c r="H259" t="s">
+        <v>1</v>
+      </c>
+      <c r="I259" s="2">
+        <v>44129.43037037037</v>
+      </c>
+      <c r="J259" t="s">
+        <v>1</v>
+      </c>
+      <c r="K259" s="3">
+        <v>44129.588194444448</v>
+      </c>
+      <c r="L259">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260">
+        <v>52723</v>
+      </c>
+      <c r="B260">
+        <v>15248</v>
+      </c>
+      <c r="C260">
+        <v>46075</v>
+      </c>
+      <c r="D260" s="1">
+        <v>44130.429386574069</v>
+      </c>
+      <c r="E260">
+        <v>2027</v>
+      </c>
+      <c r="F260">
+        <v>115.5</v>
+      </c>
+      <c r="G260">
+        <v>1911.5</v>
+      </c>
+      <c r="H260" t="s">
+        <v>1</v>
+      </c>
+      <c r="I260" s="2">
+        <v>44129.430995370371</v>
+      </c>
+      <c r="J260" t="s">
+        <v>1</v>
+      </c>
+      <c r="K260" s="3">
+        <v>44129.588240740748</v>
+      </c>
+      <c r="L260">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261">
+        <v>52724</v>
+      </c>
+      <c r="B261">
+        <v>7038</v>
+      </c>
+      <c r="C261">
+        <v>46074</v>
+      </c>
+      <c r="D261" s="1">
+        <v>44130.429386574069</v>
+      </c>
+      <c r="E261">
+        <v>2037</v>
+      </c>
+      <c r="F261">
+        <v>117.5</v>
+      </c>
+      <c r="G261">
+        <v>1919.5</v>
+      </c>
+      <c r="H261" t="s">
+        <v>1</v>
+      </c>
+      <c r="I261" s="2">
+        <v>44129.432615740734</v>
+      </c>
+      <c r="J261" t="s">
+        <v>1</v>
+      </c>
+      <c r="K261" s="3">
+        <v>44129.588287037041</v>
+      </c>
+      <c r="L261">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262">
+        <v>52725</v>
+      </c>
+      <c r="B262">
+        <v>12012</v>
+      </c>
+      <c r="C262">
+        <v>46073</v>
+      </c>
+      <c r="D262" s="1">
+        <v>44130.429386574069</v>
+      </c>
+      <c r="E262">
+        <v>2015</v>
+      </c>
+      <c r="F262">
+        <v>105.5</v>
+      </c>
+      <c r="G262">
+        <v>1909.5</v>
+      </c>
+      <c r="H262" t="s">
+        <v>1</v>
+      </c>
+      <c r="I262" s="2">
+        <v>44129.433865740742</v>
+      </c>
+      <c r="J262" t="s">
+        <v>1</v>
+      </c>
+      <c r="K262" s="3">
+        <v>44129.589444444449</v>
+      </c>
+      <c r="L262">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263">
+        <v>52726</v>
+      </c>
+      <c r="B263">
+        <v>17828</v>
+      </c>
+      <c r="C263">
+        <v>46072</v>
+      </c>
+      <c r="D263" s="1">
+        <v>44130.429386574069</v>
+      </c>
+      <c r="E263">
+        <v>2026.5</v>
+      </c>
+      <c r="F263">
+        <v>107</v>
+      </c>
+      <c r="G263">
+        <v>1919.5</v>
+      </c>
+      <c r="H263" t="s">
+        <v>1</v>
+      </c>
+      <c r="I263" s="2">
+        <v>44129.434907407405</v>
+      </c>
+      <c r="J263" t="s">
+        <v>1</v>
+      </c>
+      <c r="K263" s="3">
+        <v>44129.58938657408</v>
+      </c>
+      <c r="L263">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264">
+        <v>52728</v>
+      </c>
+      <c r="B264">
+        <v>9466</v>
+      </c>
+      <c r="C264">
+        <v>46071</v>
+      </c>
+      <c r="D264" s="1">
+        <v>44130.429386574069</v>
+      </c>
+      <c r="E264">
+        <v>2046.5</v>
+      </c>
+      <c r="F264">
+        <v>127.5</v>
+      </c>
+      <c r="G264">
+        <v>1919</v>
+      </c>
+      <c r="H264" t="s">
+        <v>1</v>
+      </c>
+      <c r="I264" s="2">
+        <v>44129.436678240738</v>
+      </c>
+      <c r="J264" t="s">
+        <v>1</v>
+      </c>
+      <c r="K264" s="3">
+        <v>44129.589560185188</v>
+      </c>
+      <c r="L264">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265">
+        <v>52741</v>
+      </c>
+      <c r="B265">
+        <v>18550</v>
+      </c>
+      <c r="C265">
+        <v>46814</v>
+      </c>
+      <c r="D265" s="1">
+        <v>44130</v>
+      </c>
+      <c r="E265">
+        <v>2033.5</v>
+      </c>
+      <c r="F265">
+        <v>108.5</v>
+      </c>
+      <c r="G265">
+        <v>1925</v>
+      </c>
+      <c r="H265" t="s">
+        <v>1</v>
+      </c>
+      <c r="I265" s="2">
+        <v>44129.556365740733</v>
+      </c>
+      <c r="J265" t="s">
+        <v>1</v>
+      </c>
+      <c r="K265" s="3">
+        <v>44129.589606481481</v>
+      </c>
+      <c r="L265">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/excels/tbl_history_pallet.xlsx
+++ b/excels/tbl_history_pallet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="2">
   <si>
     <t>5</t>
   </si>
@@ -71,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L265"/>
+  <dimension ref="A1:L263"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -8280,75 +8280,69 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>51811</v>
+        <v>52019</v>
       </c>
       <c r="B251">
-        <v>18728</v>
+        <v>1</v>
       </c>
       <c r="C251">
-        <v>45682</v>
+        <v>51769</v>
       </c>
       <c r="D251" s="1">
-        <v>44130.617719907408</v>
+        <v>44124</v>
       </c>
       <c r="E251">
-        <v>2035</v>
+        <v>60147</v>
       </c>
       <c r="F251">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="G251">
-        <v>1917</v>
+        <v>60147</v>
       </c>
       <c r="H251" t="s">
         <v>1</v>
       </c>
       <c r="I251" s="2">
-        <v>44123.61818287037</v>
-      </c>
-      <c r="J251" t="s">
-        <v>1</v>
-      </c>
-      <c r="K251" s="3">
-        <v>44129.587893518517</v>
+        <v>44124.730763888889</v>
       </c>
       <c r="L251">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>51812</v>
+        <v>53058</v>
       </c>
       <c r="B252">
-        <v>24614</v>
+        <v>27950</v>
       </c>
       <c r="C252">
-        <v>45680</v>
+        <v>46100</v>
       </c>
       <c r="D252" s="1">
-        <v>44130.619340277779</v>
+        <v>44132.420717592584</v>
       </c>
       <c r="E252">
-        <v>2027</v>
+        <v>2048</v>
       </c>
       <c r="F252">
-        <v>111.5</v>
+        <v>118</v>
       </c>
       <c r="G252">
-        <v>1915.5</v>
+        <v>1930</v>
       </c>
       <c r="H252" t="s">
         <v>1</v>
       </c>
       <c r="I252" s="2">
-        <v>44123.619837962964</v>
+        <v>44131.447465277772</v>
       </c>
       <c r="J252" t="s">
         <v>1</v>
       </c>
       <c r="K252" s="3">
-        <v>44129.587939814817</v>
+        <v>44131.670868055553</v>
       </c>
       <c r="L252">
         <v>24</v>
@@ -8356,69 +8350,75 @@
     </row>
     <row r="253">
       <c r="A253">
-        <v>52019</v>
+        <v>53059</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>18351</v>
       </c>
       <c r="C253">
-        <v>51769</v>
+        <v>46099</v>
       </c>
       <c r="D253" s="1">
-        <v>44124</v>
+        <v>44132.420717592584</v>
       </c>
       <c r="E253">
-        <v>60147</v>
+        <v>2018</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>104.5</v>
       </c>
       <c r="G253">
-        <v>60147</v>
+        <v>1913.5</v>
       </c>
       <c r="H253" t="s">
         <v>1</v>
       </c>
       <c r="I253" s="2">
-        <v>44124.730763888889</v>
+        <v>44131.448761574073</v>
+      </c>
+      <c r="J253" t="s">
+        <v>1</v>
+      </c>
+      <c r="K253" s="3">
+        <v>44131.670925925922</v>
       </c>
       <c r="L253">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>52185</v>
+        <v>53060</v>
       </c>
       <c r="B254">
-        <v>9717</v>
+        <v>24066</v>
       </c>
       <c r="C254">
-        <v>46465</v>
+        <v>46098</v>
       </c>
       <c r="D254" s="1">
-        <v>44130.679745370362</v>
+        <v>44132.420717592584</v>
       </c>
       <c r="E254">
-        <v>2061</v>
+        <v>2025</v>
       </c>
       <c r="F254">
-        <v>128.5</v>
+        <v>127</v>
       </c>
       <c r="G254">
-        <v>1932.5</v>
+        <v>1898</v>
       </c>
       <c r="H254" t="s">
         <v>1</v>
       </c>
       <c r="I254" s="2">
-        <v>44125.685358796298</v>
+        <v>44131.45076388889</v>
       </c>
       <c r="J254" t="s">
         <v>1</v>
       </c>
       <c r="K254" s="3">
-        <v>44129.58798611111</v>
+        <v>44131.671122685184</v>
       </c>
       <c r="L254">
         <v>24</v>
@@ -8426,37 +8426,37 @@
     </row>
     <row r="255">
       <c r="A255">
-        <v>52187</v>
+        <v>53061</v>
       </c>
       <c r="B255">
-        <v>1009</v>
+        <v>20029</v>
       </c>
       <c r="C255">
-        <v>46463</v>
+        <v>46097</v>
       </c>
       <c r="D255" s="1">
-        <v>44130.679745370362</v>
+        <v>44132.420717592584</v>
       </c>
       <c r="E255">
-        <v>2039</v>
+        <v>2008.5</v>
       </c>
       <c r="F255">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G255">
-        <v>1926</v>
+        <v>1911.5</v>
       </c>
       <c r="H255" t="s">
         <v>1</v>
       </c>
       <c r="I255" s="2">
-        <v>44125.688159722224</v>
+        <v>44131.452465277776</v>
       </c>
       <c r="J255" t="s">
         <v>1</v>
       </c>
       <c r="K255" s="3">
-        <v>44129.58803240741</v>
+        <v>44131.671168981477</v>
       </c>
       <c r="L255">
         <v>24</v>
@@ -8464,37 +8464,37 @@
     </row>
     <row r="256">
       <c r="A256">
-        <v>52716</v>
+        <v>53062</v>
       </c>
       <c r="B256">
-        <v>17121</v>
+        <v>23547</v>
       </c>
       <c r="C256">
-        <v>46085</v>
+        <v>46096</v>
       </c>
       <c r="D256" s="1">
-        <v>44130.395046296297</v>
+        <v>44132.420717592584</v>
       </c>
       <c r="E256">
-        <v>2019</v>
+        <v>2021.5</v>
       </c>
       <c r="F256">
-        <v>96.5</v>
+        <v>91.5</v>
       </c>
       <c r="G256">
-        <v>1922.5</v>
+        <v>1930</v>
       </c>
       <c r="H256" t="s">
         <v>1</v>
       </c>
       <c r="I256" s="2">
-        <v>44129.408784722218</v>
+        <v>44131.454085648147</v>
       </c>
       <c r="J256" t="s">
         <v>1</v>
       </c>
       <c r="K256" s="3">
-        <v>44129.588078703702</v>
+        <v>44131.671215277776</v>
       </c>
       <c r="L256">
         <v>24</v>
@@ -8502,37 +8502,37 @@
     </row>
     <row r="257">
       <c r="A257">
-        <v>52719</v>
+        <v>53063</v>
       </c>
       <c r="B257">
-        <v>27311</v>
+        <v>27417</v>
       </c>
       <c r="C257">
-        <v>46078</v>
+        <v>46094</v>
       </c>
       <c r="D257" s="1">
-        <v>44130.395046296297</v>
+        <v>44132.420717592584</v>
       </c>
       <c r="E257">
-        <v>2030</v>
+        <v>2005</v>
       </c>
       <c r="F257">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G257">
-        <v>1918</v>
+        <v>1902</v>
       </c>
       <c r="H257" t="s">
         <v>1</v>
       </c>
       <c r="I257" s="2">
-        <v>44129.410844907405</v>
+        <v>44131.456030092595</v>
       </c>
       <c r="J257" t="s">
         <v>1</v>
       </c>
       <c r="K257" s="3">
-        <v>44129.588113425925</v>
+        <v>44131.671261574069</v>
       </c>
       <c r="L257">
         <v>24</v>
@@ -8540,37 +8540,37 @@
     </row>
     <row r="258">
       <c r="A258">
-        <v>52721</v>
+        <v>53064</v>
       </c>
       <c r="B258">
-        <v>20057</v>
+        <v>9208</v>
       </c>
       <c r="C258">
-        <v>46077</v>
+        <v>46093</v>
       </c>
       <c r="D258" s="1">
-        <v>44130.429386574069</v>
+        <v>44132.420717592584</v>
       </c>
       <c r="E258">
-        <v>2056</v>
+        <v>2034</v>
       </c>
       <c r="F258">
-        <v>126.5</v>
+        <v>104</v>
       </c>
       <c r="G258">
-        <v>1929.5</v>
+        <v>1930</v>
       </c>
       <c r="H258" t="s">
         <v>1</v>
       </c>
       <c r="I258" s="2">
-        <v>44129.429780092585</v>
+        <v>44131.458252314813</v>
       </c>
       <c r="J258" t="s">
         <v>1</v>
       </c>
       <c r="K258" s="3">
-        <v>44129.588159722225</v>
+        <v>44131.671296296292</v>
       </c>
       <c r="L258">
         <v>24</v>
@@ -8578,37 +8578,37 @@
     </row>
     <row r="259">
       <c r="A259">
-        <v>52722</v>
+        <v>53065</v>
       </c>
       <c r="B259">
-        <v>1673</v>
+        <v>11304</v>
       </c>
       <c r="C259">
-        <v>46076</v>
+        <v>46091</v>
       </c>
       <c r="D259" s="1">
-        <v>44130.429386574069</v>
+        <v>44132.420717592584</v>
       </c>
       <c r="E259">
-        <v>2053</v>
+        <v>2007</v>
       </c>
       <c r="F259">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="G259">
-        <v>1936</v>
+        <v>1910</v>
       </c>
       <c r="H259" t="s">
         <v>1</v>
       </c>
       <c r="I259" s="2">
-        <v>44129.43037037037</v>
+        <v>44131.460046296299</v>
       </c>
       <c r="J259" t="s">
         <v>1</v>
       </c>
       <c r="K259" s="3">
-        <v>44129.588194444448</v>
+        <v>44131.671342592592</v>
       </c>
       <c r="L259">
         <v>24</v>
@@ -8616,37 +8616,37 @@
     </row>
     <row r="260">
       <c r="A260">
-        <v>52723</v>
+        <v>53066</v>
       </c>
       <c r="B260">
-        <v>15248</v>
+        <v>7513</v>
       </c>
       <c r="C260">
-        <v>46075</v>
+        <v>46086</v>
       </c>
       <c r="D260" s="1">
-        <v>44130.429386574069</v>
+        <v>44132.420717592584</v>
       </c>
       <c r="E260">
-        <v>2027</v>
+        <v>2017</v>
       </c>
       <c r="F260">
-        <v>115.5</v>
+        <v>112.5</v>
       </c>
       <c r="G260">
-        <v>1911.5</v>
+        <v>1904.5</v>
       </c>
       <c r="H260" t="s">
         <v>1</v>
       </c>
       <c r="I260" s="2">
-        <v>44129.430995370371</v>
+        <v>44131.46225694444</v>
       </c>
       <c r="J260" t="s">
         <v>1</v>
       </c>
       <c r="K260" s="3">
-        <v>44129.588240740748</v>
+        <v>44131.671446759254</v>
       </c>
       <c r="L260">
         <v>24</v>
@@ -8654,37 +8654,37 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>52724</v>
+        <v>53067</v>
       </c>
       <c r="B261">
-        <v>7038</v>
+        <v>18854</v>
       </c>
       <c r="C261">
-        <v>46074</v>
+        <v>46083</v>
       </c>
       <c r="D261" s="1">
-        <v>44130.429386574069</v>
+        <v>44132.420717592584</v>
       </c>
       <c r="E261">
-        <v>2037</v>
+        <v>2040</v>
       </c>
       <c r="F261">
-        <v>117.5</v>
+        <v>107</v>
       </c>
       <c r="G261">
-        <v>1919.5</v>
+        <v>1933</v>
       </c>
       <c r="H261" t="s">
         <v>1</v>
       </c>
       <c r="I261" s="2">
-        <v>44129.432615740734</v>
+        <v>44131.464027777787</v>
       </c>
       <c r="J261" t="s">
         <v>1</v>
       </c>
       <c r="K261" s="3">
-        <v>44129.588287037041</v>
+        <v>44131.671493055554</v>
       </c>
       <c r="L261">
         <v>24</v>
@@ -8692,37 +8692,37 @@
     </row>
     <row r="262">
       <c r="A262">
-        <v>52725</v>
+        <v>53108</v>
       </c>
       <c r="B262">
-        <v>12012</v>
+        <v>6164</v>
       </c>
       <c r="C262">
-        <v>46073</v>
+        <v>46080</v>
       </c>
       <c r="D262" s="1">
-        <v>44130.429386574069</v>
+        <v>44132.614189814813</v>
       </c>
       <c r="E262">
-        <v>2015</v>
+        <v>2050</v>
       </c>
       <c r="F262">
-        <v>105.5</v>
+        <v>115</v>
       </c>
       <c r="G262">
-        <v>1909.5</v>
+        <v>1935</v>
       </c>
       <c r="H262" t="s">
         <v>1</v>
       </c>
       <c r="I262" s="2">
-        <v>44129.433865740742</v>
+        <v>44131.621261574073</v>
       </c>
       <c r="J262" t="s">
         <v>1</v>
       </c>
       <c r="K262" s="3">
-        <v>44129.589444444449</v>
+        <v>44131.671550925923</v>
       </c>
       <c r="L262">
         <v>24</v>
@@ -8730,115 +8730,39 @@
     </row>
     <row r="263">
       <c r="A263">
-        <v>52726</v>
+        <v>53109</v>
       </c>
       <c r="B263">
-        <v>17828</v>
+        <v>26759</v>
       </c>
       <c r="C263">
-        <v>46072</v>
+        <v>46685</v>
       </c>
       <c r="D263" s="1">
-        <v>44130.429386574069</v>
+        <v>44132.614189814813</v>
       </c>
       <c r="E263">
-        <v>2026.5</v>
+        <v>2032</v>
       </c>
       <c r="F263">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G263">
-        <v>1919.5</v>
+        <v>1926</v>
       </c>
       <c r="H263" t="s">
         <v>1</v>
       </c>
       <c r="I263" s="2">
-        <v>44129.434907407405</v>
+        <v>44131.625011574077</v>
       </c>
       <c r="J263" t="s">
         <v>1</v>
       </c>
       <c r="K263" s="3">
-        <v>44129.58938657408</v>
+        <v>44131.671597222223</v>
       </c>
       <c r="L263">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264">
-        <v>52728</v>
-      </c>
-      <c r="B264">
-        <v>9466</v>
-      </c>
-      <c r="C264">
-        <v>46071</v>
-      </c>
-      <c r="D264" s="1">
-        <v>44130.429386574069</v>
-      </c>
-      <c r="E264">
-        <v>2046.5</v>
-      </c>
-      <c r="F264">
-        <v>127.5</v>
-      </c>
-      <c r="G264">
-        <v>1919</v>
-      </c>
-      <c r="H264" t="s">
-        <v>1</v>
-      </c>
-      <c r="I264" s="2">
-        <v>44129.436678240738</v>
-      </c>
-      <c r="J264" t="s">
-        <v>1</v>
-      </c>
-      <c r="K264" s="3">
-        <v>44129.589560185188</v>
-      </c>
-      <c r="L264">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265">
-        <v>52741</v>
-      </c>
-      <c r="B265">
-        <v>18550</v>
-      </c>
-      <c r="C265">
-        <v>46814</v>
-      </c>
-      <c r="D265" s="1">
-        <v>44130</v>
-      </c>
-      <c r="E265">
-        <v>2033.5</v>
-      </c>
-      <c r="F265">
-        <v>108.5</v>
-      </c>
-      <c r="G265">
-        <v>1925</v>
-      </c>
-      <c r="H265" t="s">
-        <v>1</v>
-      </c>
-      <c r="I265" s="2">
-        <v>44129.556365740733</v>
-      </c>
-      <c r="J265" t="s">
-        <v>1</v>
-      </c>
-      <c r="K265" s="3">
-        <v>44129.589606481481</v>
-      </c>
-      <c r="L265">
         <v>24</v>
       </c>
     </row>

--- a/excels/tbl_history_pallet.xlsx
+++ b/excels/tbl_history_pallet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="2">
   <si>
     <t>5</t>
   </si>
@@ -71,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L263"/>
+  <dimension ref="A1:L267"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -8321,7 +8321,7 @@
         <v>46100</v>
       </c>
       <c r="D252" s="1">
-        <v>44132.420717592584</v>
+        <v>44138.420717592584</v>
       </c>
       <c r="E252">
         <v>2048</v>
@@ -8342,7 +8342,7 @@
         <v>1</v>
       </c>
       <c r="K252" s="3">
-        <v>44131.670868055553</v>
+        <v>44137.774479166663</v>
       </c>
       <c r="L252">
         <v>24</v>
@@ -8350,37 +8350,37 @@
     </row>
     <row r="253">
       <c r="A253">
-        <v>53059</v>
+        <v>53279</v>
       </c>
       <c r="B253">
-        <v>18351</v>
+        <v>28083</v>
       </c>
       <c r="C253">
-        <v>46099</v>
+        <v>47099</v>
       </c>
       <c r="D253" s="1">
-        <v>44132.420717592584</v>
+        <v>44133.612858796296</v>
       </c>
       <c r="E253">
-        <v>2018</v>
+        <v>2070.5</v>
       </c>
       <c r="F253">
-        <v>104.5</v>
+        <v>92</v>
       </c>
       <c r="G253">
-        <v>1913.5</v>
+        <v>1978.5</v>
       </c>
       <c r="H253" t="s">
         <v>1</v>
       </c>
       <c r="I253" s="2">
-        <v>44131.448761574073</v>
+        <v>44132.626284722224</v>
       </c>
       <c r="J253" t="s">
         <v>1</v>
       </c>
       <c r="K253" s="3">
-        <v>44131.670925925922</v>
+        <v>44132.783946759257</v>
       </c>
       <c r="L253">
         <v>24</v>
@@ -8388,75 +8388,69 @@
     </row>
     <row r="254">
       <c r="A254">
-        <v>53060</v>
+        <v>53444</v>
       </c>
       <c r="B254">
-        <v>24066</v>
+        <v>23883</v>
       </c>
       <c r="C254">
-        <v>46098</v>
+        <v>52615</v>
       </c>
       <c r="D254" s="1">
-        <v>44132.420717592584</v>
+        <v>44133.480023148149</v>
       </c>
       <c r="E254">
-        <v>2025</v>
+        <v>2582.5</v>
       </c>
       <c r="F254">
-        <v>127</v>
+        <v>87.5</v>
       </c>
       <c r="G254">
-        <v>1898</v>
+        <v>2495</v>
       </c>
       <c r="H254" t="s">
         <v>1</v>
       </c>
       <c r="I254" s="2">
-        <v>44131.45076388889</v>
-      </c>
-      <c r="J254" t="s">
-        <v>1</v>
-      </c>
-      <c r="K254" s="3">
-        <v>44131.671122685184</v>
+        <v>44133.480150462965</v>
       </c>
       <c r="L254">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>53061</v>
+        <v>53538</v>
       </c>
       <c r="B255">
-        <v>20029</v>
+        <v>17210</v>
       </c>
       <c r="C255">
-        <v>46097</v>
+        <v>46285</v>
       </c>
       <c r="D255" s="1">
-        <v>44132.420717592584</v>
+        <v>44138.426203703704</v>
       </c>
       <c r="E255">
-        <v>2008.5</v>
+        <v>2003</v>
       </c>
       <c r="F255">
-        <v>97</v>
+        <v>93.5</v>
       </c>
       <c r="G255">
-        <v>1911.5</v>
+        <v>1909.5</v>
       </c>
       <c r="H255" t="s">
         <v>1</v>
       </c>
       <c r="I255" s="2">
-        <v>44131.452465277776</v>
+        <v>44134.426631944443</v>
       </c>
       <c r="J255" t="s">
         <v>1</v>
       </c>
       <c r="K255" s="3">
-        <v>44131.671168981477</v>
+        <v>44137.774525462963</v>
       </c>
       <c r="L255">
         <v>24</v>
@@ -8464,151 +8458,133 @@
     </row>
     <row r="256">
       <c r="A256">
-        <v>53062</v>
+        <v>53804</v>
       </c>
       <c r="B256">
-        <v>23547</v>
+        <v>2</v>
       </c>
       <c r="C256">
-        <v>46096</v>
+        <v>52932</v>
       </c>
       <c r="D256" s="1">
-        <v>44132.420717592584</v>
+        <v>44136</v>
       </c>
       <c r="E256">
-        <v>2021.5</v>
+        <v>8360</v>
       </c>
       <c r="F256">
-        <v>91.5</v>
+        <v>4380</v>
       </c>
       <c r="G256">
-        <v>1930</v>
+        <v>3980</v>
       </c>
       <c r="H256" t="s">
         <v>1</v>
       </c>
       <c r="I256" s="2">
-        <v>44131.454085648147</v>
-      </c>
-      <c r="J256" t="s">
-        <v>1</v>
-      </c>
-      <c r="K256" s="3">
-        <v>44131.671215277776</v>
+        <v>44136.299837962964</v>
       </c>
       <c r="L256">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>53063</v>
+        <v>53910</v>
       </c>
       <c r="B257">
-        <v>27417</v>
+        <v>17606</v>
       </c>
       <c r="C257">
-        <v>46094</v>
+        <v>48409</v>
       </c>
       <c r="D257" s="1">
-        <v>44132.420717592584</v>
+        <v>44137.675266203696</v>
       </c>
       <c r="E257">
-        <v>2005</v>
+        <v>2581</v>
       </c>
       <c r="F257">
-        <v>103</v>
+        <v>115.5</v>
       </c>
       <c r="G257">
-        <v>1902</v>
+        <v>2465.5</v>
       </c>
       <c r="H257" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" s="2">
-        <v>44131.456030092595</v>
-      </c>
-      <c r="J257" t="s">
-        <v>1</v>
-      </c>
-      <c r="K257" s="3">
-        <v>44131.671261574069</v>
+        <v>44137.677662037029</v>
       </c>
       <c r="L257">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>53064</v>
+        <v>53911</v>
       </c>
       <c r="B258">
-        <v>9208</v>
+        <v>23070</v>
       </c>
       <c r="C258">
-        <v>46093</v>
+        <v>48404</v>
       </c>
       <c r="D258" s="1">
-        <v>44132.420717592584</v>
+        <v>44137.675266203696</v>
       </c>
       <c r="E258">
-        <v>2034</v>
+        <v>2566</v>
       </c>
       <c r="F258">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G258">
-        <v>1930</v>
+        <v>2469</v>
       </c>
       <c r="H258" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" s="2">
-        <v>44131.458252314813</v>
-      </c>
-      <c r="J258" t="s">
-        <v>1</v>
-      </c>
-      <c r="K258" s="3">
-        <v>44131.671296296292</v>
+        <v>44137.677858796291</v>
       </c>
       <c r="L258">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>53065</v>
+        <v>53912</v>
       </c>
       <c r="B259">
-        <v>11304</v>
+        <v>15997</v>
       </c>
       <c r="C259">
-        <v>46091</v>
+        <v>47327</v>
       </c>
       <c r="D259" s="1">
-        <v>44132.420717592584</v>
+        <v>44138.670243055552</v>
       </c>
       <c r="E259">
-        <v>2007</v>
+        <v>2044</v>
       </c>
       <c r="F259">
-        <v>97</v>
+        <v>101.5</v>
       </c>
       <c r="G259">
-        <v>1910</v>
+        <v>1942.5</v>
       </c>
       <c r="H259" t="s">
         <v>1</v>
       </c>
       <c r="I259" s="2">
-        <v>44131.460046296299</v>
+        <v>44137.678078703699</v>
       </c>
       <c r="J259" t="s">
         <v>1</v>
       </c>
       <c r="K259" s="3">
-        <v>44131.671342592592</v>
+        <v>44137.774571759255</v>
       </c>
       <c r="L259">
         <v>24</v>
@@ -8616,37 +8592,37 @@
     </row>
     <row r="260">
       <c r="A260">
-        <v>53066</v>
+        <v>53917</v>
       </c>
       <c r="B260">
-        <v>7513</v>
+        <v>16437</v>
       </c>
       <c r="C260">
-        <v>46086</v>
+        <v>47325</v>
       </c>
       <c r="D260" s="1">
-        <v>44132.420717592584</v>
+        <v>44138.670243055552</v>
       </c>
       <c r="E260">
-        <v>2017</v>
+        <v>2044</v>
       </c>
       <c r="F260">
-        <v>112.5</v>
+        <v>129</v>
       </c>
       <c r="G260">
-        <v>1904.5</v>
+        <v>1915</v>
       </c>
       <c r="H260" t="s">
         <v>1</v>
       </c>
       <c r="I260" s="2">
-        <v>44131.46225694444</v>
+        <v>44137.679826388885</v>
       </c>
       <c r="J260" t="s">
         <v>1</v>
       </c>
       <c r="K260" s="3">
-        <v>44131.671446759254</v>
+        <v>44137.774629629632</v>
       </c>
       <c r="L260">
         <v>24</v>
@@ -8654,37 +8630,37 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>53067</v>
+        <v>53923</v>
       </c>
       <c r="B261">
-        <v>18854</v>
+        <v>23636</v>
       </c>
       <c r="C261">
-        <v>46083</v>
+        <v>47323</v>
       </c>
       <c r="D261" s="1">
-        <v>44132.420717592584</v>
+        <v>44138.670243055552</v>
       </c>
       <c r="E261">
-        <v>2040</v>
+        <v>2009</v>
       </c>
       <c r="F261">
-        <v>107</v>
+        <v>74.5</v>
       </c>
       <c r="G261">
-        <v>1933</v>
+        <v>1934.5</v>
       </c>
       <c r="H261" t="s">
         <v>1</v>
       </c>
       <c r="I261" s="2">
-        <v>44131.464027777787</v>
+        <v>44137.682071759256</v>
       </c>
       <c r="J261" t="s">
         <v>1</v>
       </c>
       <c r="K261" s="3">
-        <v>44131.671493055554</v>
+        <v>44137.774687500001</v>
       </c>
       <c r="L261">
         <v>24</v>
@@ -8692,37 +8668,31 @@
     </row>
     <row r="262">
       <c r="A262">
-        <v>53108</v>
+        <v>54073</v>
       </c>
       <c r="B262">
-        <v>6164</v>
+        <v>15867</v>
       </c>
       <c r="C262">
-        <v>46080</v>
+        <v>47344</v>
       </c>
       <c r="D262" s="1">
-        <v>44132.614189814813</v>
+        <v>44138.54850694444</v>
       </c>
       <c r="E262">
-        <v>2050</v>
+        <v>2035</v>
       </c>
       <c r="F262">
-        <v>115</v>
+        <v>102.5</v>
       </c>
       <c r="G262">
-        <v>1935</v>
+        <v>1932.5</v>
       </c>
       <c r="H262" t="s">
         <v>1</v>
       </c>
       <c r="I262" s="2">
-        <v>44131.621261574073</v>
-      </c>
-      <c r="J262" t="s">
-        <v>1</v>
-      </c>
-      <c r="K262" s="3">
-        <v>44131.671550925923</v>
+        <v>44138.548935185187</v>
       </c>
       <c r="L262">
         <v>24</v>
@@ -8730,39 +8700,161 @@
     </row>
     <row r="263">
       <c r="A263">
-        <v>53109</v>
+        <v>54074</v>
       </c>
       <c r="B263">
-        <v>26759</v>
+        <v>16796</v>
       </c>
       <c r="C263">
-        <v>46685</v>
+        <v>47341</v>
       </c>
       <c r="D263" s="1">
-        <v>44132.614189814813</v>
+        <v>44138.54850694444</v>
       </c>
       <c r="E263">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="F263">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G263">
-        <v>1926</v>
+        <v>1939</v>
       </c>
       <c r="H263" t="s">
         <v>1</v>
       </c>
       <c r="I263" s="2">
-        <v>44131.625011574077</v>
-      </c>
-      <c r="J263" t="s">
-        <v>1</v>
-      </c>
-      <c r="K263" s="3">
-        <v>44131.671597222223</v>
+        <v>44138.550092592588</v>
       </c>
       <c r="L263">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264">
+        <v>54075</v>
+      </c>
+      <c r="B264">
+        <v>28546</v>
+      </c>
+      <c r="C264">
+        <v>47326</v>
+      </c>
+      <c r="D264" s="1">
+        <v>44138.54850694444</v>
+      </c>
+      <c r="E264">
+        <v>2035</v>
+      </c>
+      <c r="F264">
+        <v>104.5</v>
+      </c>
+      <c r="G264">
+        <v>1930.5</v>
+      </c>
+      <c r="H264" t="s">
+        <v>1</v>
+      </c>
+      <c r="I264" s="2">
+        <v>44138.552129629628</v>
+      </c>
+      <c r="L264">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265">
+        <v>54076</v>
+      </c>
+      <c r="B265">
+        <v>18767</v>
+      </c>
+      <c r="C265">
+        <v>47324</v>
+      </c>
+      <c r="D265" s="1">
+        <v>44138.54850694444</v>
+      </c>
+      <c r="E265">
+        <v>2060.5</v>
+      </c>
+      <c r="F265">
+        <v>137.5</v>
+      </c>
+      <c r="G265">
+        <v>1923</v>
+      </c>
+      <c r="H265" t="s">
+        <v>1</v>
+      </c>
+      <c r="I265" s="2">
+        <v>44138.555474537032</v>
+      </c>
+      <c r="L265">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266">
+        <v>54077</v>
+      </c>
+      <c r="B266">
+        <v>28372</v>
+      </c>
+      <c r="C266">
+        <v>47607</v>
+      </c>
+      <c r="D266" s="1">
+        <v>44138.54850694444</v>
+      </c>
+      <c r="E266">
+        <v>2014.5</v>
+      </c>
+      <c r="F266">
+        <v>91</v>
+      </c>
+      <c r="G266">
+        <v>1923.5</v>
+      </c>
+      <c r="H266" t="s">
+        <v>1</v>
+      </c>
+      <c r="I266" s="2">
+        <v>44138.557094907403</v>
+      </c>
+      <c r="L266">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267">
+        <v>54085</v>
+      </c>
+      <c r="B267">
+        <v>25706</v>
+      </c>
+      <c r="C267">
+        <v>47321</v>
+      </c>
+      <c r="D267" s="1">
+        <v>44138.564803240741</v>
+      </c>
+      <c r="E267">
+        <v>2050</v>
+      </c>
+      <c r="F267">
+        <v>114</v>
+      </c>
+      <c r="G267">
+        <v>1936</v>
+      </c>
+      <c r="H267" t="s">
+        <v>1</v>
+      </c>
+      <c r="I267" s="2">
+        <v>44138.583391203705</v>
+      </c>
+      <c r="L267">
         <v>24</v>
       </c>
     </row>

--- a/excels/tbl_history_pallet.xlsx
+++ b/excels/tbl_history_pallet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="2">
   <si>
     <t>5</t>
   </si>
@@ -71,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L267"/>
+  <dimension ref="A1:L266"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -8321,7 +8321,7 @@
         <v>46100</v>
       </c>
       <c r="D252" s="1">
-        <v>44138.420717592584</v>
+        <v>44140.420717592584</v>
       </c>
       <c r="E252">
         <v>2048</v>
@@ -8342,7 +8342,7 @@
         <v>1</v>
       </c>
       <c r="K252" s="3">
-        <v>44137.774479166663</v>
+        <v>44139.664594907408</v>
       </c>
       <c r="L252">
         <v>24</v>
@@ -8429,7 +8429,7 @@
         <v>46285</v>
       </c>
       <c r="D255" s="1">
-        <v>44138.426203703704</v>
+        <v>44140.426203703704</v>
       </c>
       <c r="E255">
         <v>2003</v>
@@ -8450,7 +8450,7 @@
         <v>1</v>
       </c>
       <c r="K255" s="3">
-        <v>44137.774525462963</v>
+        <v>44139.664641203701</v>
       </c>
       <c r="L255">
         <v>24</v>
@@ -8563,7 +8563,7 @@
         <v>47327</v>
       </c>
       <c r="D259" s="1">
-        <v>44138.670243055552</v>
+        <v>44140.670243055552</v>
       </c>
       <c r="E259">
         <v>2044</v>
@@ -8584,7 +8584,7 @@
         <v>1</v>
       </c>
       <c r="K259" s="3">
-        <v>44137.774571759255</v>
+        <v>44139.664687500001</v>
       </c>
       <c r="L259">
         <v>24</v>
@@ -8601,7 +8601,7 @@
         <v>47325</v>
       </c>
       <c r="D260" s="1">
-        <v>44138.670243055552</v>
+        <v>44140.670243055552</v>
       </c>
       <c r="E260">
         <v>2044</v>
@@ -8622,7 +8622,7 @@
         <v>1</v>
       </c>
       <c r="K260" s="3">
-        <v>44137.774629629632</v>
+        <v>44139.66474537037</v>
       </c>
       <c r="L260">
         <v>24</v>
@@ -8639,7 +8639,7 @@
         <v>47323</v>
       </c>
       <c r="D261" s="1">
-        <v>44138.670243055552</v>
+        <v>44140.670243055552</v>
       </c>
       <c r="E261">
         <v>2009</v>
@@ -8660,7 +8660,7 @@
         <v>1</v>
       </c>
       <c r="K261" s="3">
-        <v>44137.774687500001</v>
+        <v>44139.664791666662</v>
       </c>
       <c r="L261">
         <v>24</v>
@@ -8677,7 +8677,7 @@
         <v>47344</v>
       </c>
       <c r="D262" s="1">
-        <v>44138.54850694444</v>
+        <v>44140.54850694444</v>
       </c>
       <c r="E262">
         <v>2035</v>
@@ -8693,6 +8693,12 @@
       </c>
       <c r="I262" s="2">
         <v>44138.548935185187</v>
+      </c>
+      <c r="J262" t="s">
+        <v>1</v>
+      </c>
+      <c r="K262" s="3">
+        <v>44139.664837962962</v>
       </c>
       <c r="L262">
         <v>24</v>
@@ -8709,7 +8715,7 @@
         <v>47341</v>
       </c>
       <c r="D263" s="1">
-        <v>44138.54850694444</v>
+        <v>44140.54850694444</v>
       </c>
       <c r="E263">
         <v>2033</v>
@@ -8726,37 +8732,49 @@
       <c r="I263" s="2">
         <v>44138.550092592588</v>
       </c>
+      <c r="J263" t="s">
+        <v>1</v>
+      </c>
+      <c r="K263" s="3">
+        <v>44139.664884259255</v>
+      </c>
       <c r="L263">
         <v>24</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>54075</v>
+        <v>54296</v>
       </c>
       <c r="B264">
-        <v>28546</v>
+        <v>28397</v>
       </c>
       <c r="C264">
-        <v>47326</v>
+        <v>47626</v>
       </c>
       <c r="D264" s="1">
-        <v>44138.54850694444</v>
+        <v>44140.637650462959</v>
       </c>
       <c r="E264">
-        <v>2035</v>
+        <v>2050</v>
       </c>
       <c r="F264">
-        <v>104.5</v>
+        <v>107.5</v>
       </c>
       <c r="G264">
-        <v>1930.5</v>
+        <v>1942.5</v>
       </c>
       <c r="H264" t="s">
         <v>1</v>
       </c>
       <c r="I264" s="2">
-        <v>44138.552129629628</v>
+        <v>44139.63785879629</v>
+      </c>
+      <c r="J264" t="s">
+        <v>1</v>
+      </c>
+      <c r="K264" s="3">
+        <v>44139.664930555555</v>
       </c>
       <c r="L264">
         <v>24</v>
@@ -8764,31 +8782,37 @@
     </row>
     <row r="265">
       <c r="A265">
-        <v>54076</v>
+        <v>54297</v>
       </c>
       <c r="B265">
-        <v>18767</v>
+        <v>18497</v>
       </c>
       <c r="C265">
-        <v>47324</v>
+        <v>47625</v>
       </c>
       <c r="D265" s="1">
-        <v>44138.54850694444</v>
+        <v>44140.640011574069</v>
       </c>
       <c r="E265">
-        <v>2060.5</v>
+        <v>2034</v>
       </c>
       <c r="F265">
-        <v>137.5</v>
+        <v>101</v>
       </c>
       <c r="G265">
-        <v>1923</v>
+        <v>1933</v>
       </c>
       <c r="H265" t="s">
         <v>1</v>
       </c>
       <c r="I265" s="2">
-        <v>44138.555474537032</v>
+        <v>44139.640138888884</v>
+      </c>
+      <c r="J265" t="s">
+        <v>1</v>
+      </c>
+      <c r="K265" s="3">
+        <v>44139.664976851847</v>
       </c>
       <c r="L265">
         <v>24</v>
@@ -8796,66 +8820,34 @@
     </row>
     <row r="266">
       <c r="A266">
-        <v>54077</v>
+        <v>54318</v>
       </c>
       <c r="B266">
-        <v>28372</v>
+        <v>18342</v>
       </c>
       <c r="C266">
-        <v>47607</v>
+        <v>38933</v>
       </c>
       <c r="D266" s="1">
-        <v>44138.54850694444</v>
+        <v>44139</v>
       </c>
       <c r="E266">
-        <v>2014.5</v>
+        <v>2591</v>
       </c>
       <c r="F266">
-        <v>91</v>
+        <v>106.5</v>
       </c>
       <c r="G266">
-        <v>1923.5</v>
+        <v>2484.5</v>
       </c>
       <c r="H266" t="s">
         <v>1</v>
       </c>
       <c r="I266" s="2">
-        <v>44138.557094907403</v>
+        <v>44139.716921296298</v>
       </c>
       <c r="L266">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267">
-        <v>54085</v>
-      </c>
-      <c r="B267">
-        <v>25706</v>
-      </c>
-      <c r="C267">
-        <v>47321</v>
-      </c>
-      <c r="D267" s="1">
-        <v>44138.564803240741</v>
-      </c>
-      <c r="E267">
-        <v>2050</v>
-      </c>
-      <c r="F267">
-        <v>114</v>
-      </c>
-      <c r="G267">
-        <v>1936</v>
-      </c>
-      <c r="H267" t="s">
-        <v>1</v>
-      </c>
-      <c r="I267" s="2">
-        <v>44138.583391203705</v>
-      </c>
-      <c r="L267">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/excels/tbl_history_pallet.xlsx
+++ b/excels/tbl_history_pallet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="2">
   <si>
     <t>5</t>
   </si>
@@ -71,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L266"/>
+  <dimension ref="A1:L269"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -8312,37 +8312,37 @@
     </row>
     <row r="252">
       <c r="A252">
-        <v>53058</v>
+        <v>53279</v>
       </c>
       <c r="B252">
-        <v>27950</v>
+        <v>28083</v>
       </c>
       <c r="C252">
-        <v>46100</v>
+        <v>47099</v>
       </c>
       <c r="D252" s="1">
-        <v>44140.420717592584</v>
+        <v>44133.612858796296</v>
       </c>
       <c r="E252">
-        <v>2048</v>
+        <v>2070.5</v>
       </c>
       <c r="F252">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="G252">
-        <v>1930</v>
+        <v>1978.5</v>
       </c>
       <c r="H252" t="s">
         <v>1</v>
       </c>
       <c r="I252" s="2">
-        <v>44131.447465277772</v>
+        <v>44132.626284722224</v>
       </c>
       <c r="J252" t="s">
         <v>1</v>
       </c>
       <c r="K252" s="3">
-        <v>44139.664594907408</v>
+        <v>44132.783946759257</v>
       </c>
       <c r="L252">
         <v>24</v>
@@ -8350,171 +8350,159 @@
     </row>
     <row r="253">
       <c r="A253">
-        <v>53279</v>
+        <v>53444</v>
       </c>
       <c r="B253">
-        <v>28083</v>
+        <v>23883</v>
       </c>
       <c r="C253">
-        <v>47099</v>
+        <v>52615</v>
       </c>
       <c r="D253" s="1">
-        <v>44133.612858796296</v>
+        <v>44133.480023148149</v>
       </c>
       <c r="E253">
-        <v>2070.5</v>
+        <v>2582.5</v>
       </c>
       <c r="F253">
-        <v>92</v>
+        <v>87.5</v>
       </c>
       <c r="G253">
-        <v>1978.5</v>
+        <v>2495</v>
       </c>
       <c r="H253" t="s">
         <v>1</v>
       </c>
       <c r="I253" s="2">
-        <v>44132.626284722224</v>
-      </c>
-      <c r="J253" t="s">
-        <v>1</v>
-      </c>
-      <c r="K253" s="3">
-        <v>44132.783946759257</v>
+        <v>44133.480150462965</v>
       </c>
       <c r="L253">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>53444</v>
+        <v>53804</v>
       </c>
       <c r="B254">
-        <v>23883</v>
+        <v>2</v>
       </c>
       <c r="C254">
-        <v>52615</v>
+        <v>52932</v>
       </c>
       <c r="D254" s="1">
-        <v>44133.480023148149</v>
+        <v>44136</v>
       </c>
       <c r="E254">
-        <v>2582.5</v>
+        <v>8360</v>
       </c>
       <c r="F254">
-        <v>87.5</v>
+        <v>4380</v>
       </c>
       <c r="G254">
-        <v>2495</v>
+        <v>3980</v>
       </c>
       <c r="H254" t="s">
         <v>1</v>
       </c>
       <c r="I254" s="2">
-        <v>44133.480150462965</v>
+        <v>44136.299837962964</v>
       </c>
       <c r="L254">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>53538</v>
+        <v>53910</v>
       </c>
       <c r="B255">
-        <v>17210</v>
+        <v>17606</v>
       </c>
       <c r="C255">
-        <v>46285</v>
+        <v>48409</v>
       </c>
       <c r="D255" s="1">
-        <v>44140.426203703704</v>
+        <v>44137.675266203696</v>
       </c>
       <c r="E255">
-        <v>2003</v>
+        <v>2581</v>
       </c>
       <c r="F255">
-        <v>93.5</v>
+        <v>115.5</v>
       </c>
       <c r="G255">
-        <v>1909.5</v>
+        <v>2465.5</v>
       </c>
       <c r="H255" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" s="2">
-        <v>44134.426631944443</v>
-      </c>
-      <c r="J255" t="s">
-        <v>1</v>
-      </c>
-      <c r="K255" s="3">
-        <v>44139.664641203701</v>
+        <v>44137.677662037029</v>
       </c>
       <c r="L255">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>53804</v>
+        <v>53911</v>
       </c>
       <c r="B256">
-        <v>2</v>
+        <v>23070</v>
       </c>
       <c r="C256">
-        <v>52932</v>
+        <v>48404</v>
       </c>
       <c r="D256" s="1">
-        <v>44136</v>
+        <v>44137.675266203696</v>
       </c>
       <c r="E256">
-        <v>8360</v>
+        <v>2566</v>
       </c>
       <c r="F256">
-        <v>4380</v>
+        <v>97</v>
       </c>
       <c r="G256">
-        <v>3980</v>
+        <v>2469</v>
       </c>
       <c r="H256" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" s="2">
-        <v>44136.299837962964</v>
+        <v>44137.677858796291</v>
       </c>
       <c r="L256">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>53910</v>
+        <v>54318</v>
       </c>
       <c r="B257">
-        <v>17606</v>
+        <v>18342</v>
       </c>
       <c r="C257">
-        <v>48409</v>
+        <v>38933</v>
       </c>
       <c r="D257" s="1">
-        <v>44137.675266203696</v>
+        <v>44139</v>
       </c>
       <c r="E257">
-        <v>2581</v>
+        <v>2591</v>
       </c>
       <c r="F257">
-        <v>115.5</v>
+        <v>106.5</v>
       </c>
       <c r="G257">
-        <v>2465.5</v>
+        <v>2484.5</v>
       </c>
       <c r="H257" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I257" s="2">
-        <v>44137.677662037029</v>
+        <v>44139.716921296298</v>
       </c>
       <c r="L257">
         <v>28</v>
@@ -8522,69 +8510,75 @@
     </row>
     <row r="258">
       <c r="A258">
-        <v>53911</v>
+        <v>54415</v>
       </c>
       <c r="B258">
-        <v>23070</v>
+        <v>27966</v>
       </c>
       <c r="C258">
-        <v>48404</v>
+        <v>47623</v>
       </c>
       <c r="D258" s="1">
-        <v>44137.675266203696</v>
+        <v>44141.567141203705</v>
       </c>
       <c r="E258">
-        <v>2566</v>
+        <v>2027</v>
       </c>
       <c r="F258">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G258">
-        <v>2469</v>
+        <v>1924</v>
       </c>
       <c r="H258" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I258" s="2">
-        <v>44137.677858796291</v>
+        <v>44140.579259259255</v>
+      </c>
+      <c r="J258" t="s">
+        <v>1</v>
+      </c>
+      <c r="K258" s="3">
+        <v>44140.751898148148</v>
       </c>
       <c r="L258">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>53912</v>
+        <v>54416</v>
       </c>
       <c r="B259">
-        <v>15997</v>
+        <v>28398</v>
       </c>
       <c r="C259">
-        <v>47327</v>
+        <v>47622</v>
       </c>
       <c r="D259" s="1">
-        <v>44140.670243055552</v>
+        <v>44141.567141203705</v>
       </c>
       <c r="E259">
-        <v>2044</v>
+        <v>2068.5</v>
       </c>
       <c r="F259">
-        <v>101.5</v>
+        <v>110.5</v>
       </c>
       <c r="G259">
-        <v>1942.5</v>
+        <v>1958</v>
       </c>
       <c r="H259" t="s">
         <v>1</v>
       </c>
       <c r="I259" s="2">
-        <v>44137.678078703699</v>
+        <v>44140.582060185181</v>
       </c>
       <c r="J259" t="s">
         <v>1</v>
       </c>
       <c r="K259" s="3">
-        <v>44139.664687500001</v>
+        <v>44140.751944444441</v>
       </c>
       <c r="L259">
         <v>24</v>
@@ -8592,37 +8586,37 @@
     </row>
     <row r="260">
       <c r="A260">
-        <v>53917</v>
+        <v>54417</v>
       </c>
       <c r="B260">
-        <v>16437</v>
+        <v>15868</v>
       </c>
       <c r="C260">
-        <v>47325</v>
+        <v>47621</v>
       </c>
       <c r="D260" s="1">
-        <v>44140.670243055552</v>
+        <v>44141.567141203705</v>
       </c>
       <c r="E260">
-        <v>2044</v>
+        <v>2029</v>
       </c>
       <c r="F260">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G260">
-        <v>1915</v>
+        <v>1921</v>
       </c>
       <c r="H260" t="s">
         <v>1</v>
       </c>
       <c r="I260" s="2">
-        <v>44137.679826388885</v>
+        <v>44140.585486111115</v>
       </c>
       <c r="J260" t="s">
         <v>1</v>
       </c>
       <c r="K260" s="3">
-        <v>44139.66474537037</v>
+        <v>44140.75200231481</v>
       </c>
       <c r="L260">
         <v>24</v>
@@ -8630,37 +8624,37 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>53923</v>
+        <v>54418</v>
       </c>
       <c r="B261">
-        <v>23636</v>
+        <v>28454</v>
       </c>
       <c r="C261">
-        <v>47323</v>
+        <v>47620</v>
       </c>
       <c r="D261" s="1">
-        <v>44140.670243055552</v>
+        <v>44141.567141203705</v>
       </c>
       <c r="E261">
-        <v>2009</v>
+        <v>2070</v>
       </c>
       <c r="F261">
-        <v>74.5</v>
+        <v>119.5</v>
       </c>
       <c r="G261">
-        <v>1934.5</v>
+        <v>1950.5</v>
       </c>
       <c r="H261" t="s">
         <v>1</v>
       </c>
       <c r="I261" s="2">
-        <v>44137.682071759256</v>
+        <v>44140.588425925933</v>
       </c>
       <c r="J261" t="s">
         <v>1</v>
       </c>
       <c r="K261" s="3">
-        <v>44139.664791666662</v>
+        <v>44140.752037037033</v>
       </c>
       <c r="L261">
         <v>24</v>
@@ -8668,37 +8662,37 @@
     </row>
     <row r="262">
       <c r="A262">
-        <v>54073</v>
+        <v>54419</v>
       </c>
       <c r="B262">
-        <v>15867</v>
+        <v>17479</v>
       </c>
       <c r="C262">
-        <v>47344</v>
+        <v>47619</v>
       </c>
       <c r="D262" s="1">
-        <v>44140.54850694444</v>
+        <v>44141.567141203705</v>
       </c>
       <c r="E262">
-        <v>2035</v>
+        <v>2023</v>
       </c>
       <c r="F262">
-        <v>102.5</v>
+        <v>98.5</v>
       </c>
       <c r="G262">
-        <v>1932.5</v>
+        <v>1924.5</v>
       </c>
       <c r="H262" t="s">
         <v>1</v>
       </c>
       <c r="I262" s="2">
-        <v>44138.548935185187</v>
+        <v>44140.591087962966</v>
       </c>
       <c r="J262" t="s">
         <v>1</v>
       </c>
       <c r="K262" s="3">
-        <v>44139.664837962962</v>
+        <v>44140.752083333333</v>
       </c>
       <c r="L262">
         <v>24</v>
@@ -8706,37 +8700,37 @@
     </row>
     <row r="263">
       <c r="A263">
-        <v>54074</v>
+        <v>54420</v>
       </c>
       <c r="B263">
-        <v>16796</v>
+        <v>6290</v>
       </c>
       <c r="C263">
-        <v>47341</v>
+        <v>47450</v>
       </c>
       <c r="D263" s="1">
-        <v>44140.54850694444</v>
+        <v>44141.567141203705</v>
       </c>
       <c r="E263">
-        <v>2033</v>
+        <v>2038</v>
       </c>
       <c r="F263">
-        <v>94</v>
+        <v>118.5</v>
       </c>
       <c r="G263">
-        <v>1939</v>
+        <v>1919.5</v>
       </c>
       <c r="H263" t="s">
         <v>1</v>
       </c>
       <c r="I263" s="2">
-        <v>44138.550092592588</v>
+        <v>44140.594942129632</v>
       </c>
       <c r="J263" t="s">
         <v>1</v>
       </c>
       <c r="K263" s="3">
-        <v>44139.664884259255</v>
+        <v>44140.752129629633</v>
       </c>
       <c r="L263">
         <v>24</v>
@@ -8744,37 +8738,37 @@
     </row>
     <row r="264">
       <c r="A264">
-        <v>54296</v>
+        <v>54421</v>
       </c>
       <c r="B264">
-        <v>28397</v>
+        <v>11205</v>
       </c>
       <c r="C264">
-        <v>47626</v>
+        <v>47937</v>
       </c>
       <c r="D264" s="1">
-        <v>44140.637650462959</v>
+        <v>44141.567141203705</v>
       </c>
       <c r="E264">
-        <v>2050</v>
+        <v>2039</v>
       </c>
       <c r="F264">
-        <v>107.5</v>
+        <v>106</v>
       </c>
       <c r="G264">
-        <v>1942.5</v>
+        <v>1933</v>
       </c>
       <c r="H264" t="s">
         <v>1</v>
       </c>
       <c r="I264" s="2">
-        <v>44139.63785879629</v>
+        <v>44140.599722222229</v>
       </c>
       <c r="J264" t="s">
         <v>1</v>
       </c>
       <c r="K264" s="3">
-        <v>44139.664930555555</v>
+        <v>44140.752175925925</v>
       </c>
       <c r="L264">
         <v>24</v>
@@ -8782,37 +8776,37 @@
     </row>
     <row r="265">
       <c r="A265">
-        <v>54297</v>
+        <v>54423</v>
       </c>
       <c r="B265">
-        <v>18497</v>
+        <v>27207</v>
       </c>
       <c r="C265">
-        <v>47625</v>
+        <v>47820</v>
       </c>
       <c r="D265" s="1">
-        <v>44140.640011574069</v>
+        <v>44141.611423611117</v>
       </c>
       <c r="E265">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="F265">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G265">
-        <v>1933</v>
+        <v>1927</v>
       </c>
       <c r="H265" t="s">
         <v>1</v>
       </c>
       <c r="I265" s="2">
-        <v>44139.640138888884</v>
+        <v>44140.611967592595</v>
       </c>
       <c r="J265" t="s">
         <v>1</v>
       </c>
       <c r="K265" s="3">
-        <v>44139.664976851847</v>
+        <v>44140.752222222225</v>
       </c>
       <c r="L265">
         <v>24</v>
@@ -8820,34 +8814,154 @@
     </row>
     <row r="266">
       <c r="A266">
-        <v>54318</v>
+        <v>54427</v>
       </c>
       <c r="B266">
-        <v>18342</v>
+        <v>28368</v>
       </c>
       <c r="C266">
-        <v>38933</v>
+        <v>47794</v>
       </c>
       <c r="D266" s="1">
-        <v>44139</v>
+        <v>44141.618738425925</v>
       </c>
       <c r="E266">
-        <v>2591</v>
+        <v>2011</v>
       </c>
       <c r="F266">
-        <v>106.5</v>
+        <v>96.5</v>
       </c>
       <c r="G266">
-        <v>2484.5</v>
+        <v>1914.5</v>
       </c>
       <c r="H266" t="s">
         <v>1</v>
       </c>
       <c r="I266" s="2">
-        <v>44139.716921296298</v>
+        <v>44140.623229166667</v>
+      </c>
+      <c r="J266" t="s">
+        <v>1</v>
+      </c>
+      <c r="K266" s="3">
+        <v>44140.752268518518</v>
       </c>
       <c r="L266">
-        <v>28</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267">
+        <v>54431</v>
+      </c>
+      <c r="B267">
+        <v>15808</v>
+      </c>
+      <c r="C267">
+        <v>47451</v>
+      </c>
+      <c r="D267" s="1">
+        <v>44141.640231481477</v>
+      </c>
+      <c r="E267">
+        <v>2036</v>
+      </c>
+      <c r="F267">
+        <v>116</v>
+      </c>
+      <c r="G267">
+        <v>1920</v>
+      </c>
+      <c r="H267" t="s">
+        <v>1</v>
+      </c>
+      <c r="I267" s="2">
+        <v>44140.644201388888</v>
+      </c>
+      <c r="J267" t="s">
+        <v>1</v>
+      </c>
+      <c r="K267" s="3">
+        <v>44140.75236111111</v>
+      </c>
+      <c r="L267">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268">
+        <v>54433</v>
+      </c>
+      <c r="B268">
+        <v>10711</v>
+      </c>
+      <c r="C268">
+        <v>47449</v>
+      </c>
+      <c r="D268" s="1">
+        <v>44141.640231481477</v>
+      </c>
+      <c r="E268">
+        <v>2042.5</v>
+      </c>
+      <c r="F268">
+        <v>120.5</v>
+      </c>
+      <c r="G268">
+        <v>1922</v>
+      </c>
+      <c r="H268" t="s">
+        <v>1</v>
+      </c>
+      <c r="I268" s="2">
+        <v>44140.649375000001</v>
+      </c>
+      <c r="J268" t="s">
+        <v>1</v>
+      </c>
+      <c r="K268" s="3">
+        <v>44140.752395833333</v>
+      </c>
+      <c r="L268">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269">
+        <v>54506</v>
+      </c>
+      <c r="B269">
+        <v>1999</v>
+      </c>
+      <c r="C269">
+        <v>47774</v>
+      </c>
+      <c r="D269" s="1">
+        <v>44141.702002314807</v>
+      </c>
+      <c r="E269">
+        <v>2032</v>
+      </c>
+      <c r="F269">
+        <v>122.5</v>
+      </c>
+      <c r="G269">
+        <v>1909.5</v>
+      </c>
+      <c r="H269" t="s">
+        <v>1</v>
+      </c>
+      <c r="I269" s="2">
+        <v>44140.702685185184</v>
+      </c>
+      <c r="J269" t="s">
+        <v>1</v>
+      </c>
+      <c r="K269" s="3">
+        <v>44140.752430555556</v>
+      </c>
+      <c r="L269">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
